--- a/mrl-backend/excel/MRL_Master.xlsx
+++ b/mrl-backend/excel/MRL_Master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91798\Desktop\MRL\mrl-backend\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91798\Desktop\New folder\MRL\mrl-backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961032C-F47B-4EE2-B4B8-751806B94AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A187A6C-F21F-4790-B101-E823F4EEAD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="88">
   <si>
     <t>MaterialId</t>
   </si>
@@ -64,60 +64,36 @@
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>MRL-0005</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>MRL-0006</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
+    <t/>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>MRL-4001</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>MRL-4002</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
   </si>
   <si>
     <t>INACTIVE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>MRL-4001</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>MRL-4002</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
@@ -166,6 +142,60 @@
     <t>2025-07-10</t>
   </si>
   <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>MRL-6001</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>MRL-6002</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>6003</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>MRL-6003</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>MRL-6004</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
@@ -178,9 +208,6 @@
     <t>2025-01-15</t>
   </si>
   <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
     <t>3002</t>
   </si>
   <si>
@@ -263,99 +290,6 @@
   </si>
   <si>
     <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>6001</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>MRL-6001</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-09-30</t>
-  </si>
-  <si>
-    <t>6002</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>MRL-6002</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>6003</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>MRL-6003</t>
-  </si>
-  <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>6004</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>MRL-6004</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-03-01</t>
-  </si>
-  <si>
-    <t>7001</t>
-  </si>
-  <si>
-    <t>MRL-7001</t>
-  </si>
-  <si>
-    <t>INVALID_STATUS</t>
-  </si>
-  <si>
-    <t>7002</t>
-  </si>
-  <si>
-    <t>MRL-7002</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>7003</t>
-  </si>
-  <si>
-    <t>MRL-7003</t>
-  </si>
-  <si>
-    <t>8001</t>
-  </si>
-  <si>
-    <t>MRL-8001</t>
-  </si>
-  <si>
-    <t>8002</t>
-  </si>
-  <si>
-    <t>MRL-8002</t>
-  </si>
-  <si>
-    <t>2025-05-31</t>
   </si>
 </sst>
 </file>
@@ -686,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F76" sqref="A3:F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,44 +675,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -792,10 +726,10 @@
         <v>24</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>11</v>
@@ -818,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -875,47 +809,47 @@
         <v>41</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>11</v>
@@ -923,19 +857,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>11</v>
@@ -943,56 +877,56 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>10</v>
@@ -1003,56 +937,56 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>10</v>
@@ -1063,19 +997,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>11</v>
@@ -1083,56 +1017,56 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>10</v>
@@ -1143,19 +1077,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>11</v>
@@ -1163,39 +1097,39 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>11</v>
@@ -1203,16 +1137,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>10</v>
@@ -1223,19 +1157,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>11</v>
@@ -1243,39 +1177,39 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>11</v>
@@ -1283,59 +1217,59 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>11</v>
@@ -1343,76 +1277,76 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>10</v>
@@ -1423,19 +1357,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>11</v>
@@ -1443,19 +1377,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>11</v>
@@ -1463,39 +1397,39 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s" s="0">
         <v>11</v>
@@ -1503,16 +1437,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s" s="0">
         <v>10</v>
@@ -1523,39 +1457,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>11</v>
@@ -1563,39 +1497,39 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s" s="0">
         <v>11</v>
@@ -1603,36 +1537,36 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s" s="0">
         <v>10</v>
@@ -1643,16 +1577,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s" s="0">
         <v>10</v>
@@ -1663,36 +1597,36 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s" s="0">
         <v>10</v>
@@ -1703,36 +1637,36 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s" s="0">
         <v>10</v>
@@ -1743,481 +1677,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E54" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E55" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E56" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="D57" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="E57" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="E58" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="D59" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="E59" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="F59" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="E60" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="D61" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="E61" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F61" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D62" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="E62" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D63" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F63" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D64" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="D65" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="D66" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="E66" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="F66" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D67" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D68" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F68" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D69" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E69" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="E70" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D71" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="E71" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D72" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E72" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D73" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D74" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E74" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D75" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D76" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E76" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F76" t="s" s="0">
         <v>11</v>
       </c>
     </row>
